--- a/ConvertedEqual/Georgia_Converted.xlsx
+++ b/ConvertedEqual/Georgia_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="272">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -795,6 +795,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1192,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X221"/>
+  <dimension ref="A1:X233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1485,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1494,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="X7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -2831,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="X26">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2905,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2979,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -3053,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -3127,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -3201,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -3275,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>0.2615384615384616</v>
+        <v>0.2833333333333334</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -3349,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>0.2615384615384616</v>
+        <v>0.2833333333333334</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -3423,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>0.2615384615384616</v>
+        <v>0.2833333333333334</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3497,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>0.2615384615384616</v>
+        <v>0.2833333333333334</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -3571,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>0.2615384615384616</v>
+        <v>0.2833333333333334</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -3645,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>0.2615384615384616</v>
+        <v>0.2833333333333334</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3719,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="X38">
-        <v>0.2615384615384616</v>
+        <v>0.2833333333333334</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -3793,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>0.2615384615384616</v>
+        <v>0.2833333333333334</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -3867,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="X40">
-        <v>0.2615384615384616</v>
+        <v>0.2833333333333334</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -3941,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>0.2615384615384616</v>
+        <v>0.2833333333333334</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -4015,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="X42">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -4089,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="X43">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -4163,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="X44">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -4237,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="X45">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -4311,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="X46">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -4385,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="X47">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -4459,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="X48">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -4533,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -4607,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="X50">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -4681,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="X51">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -4755,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="X52">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -4829,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="X53">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -4903,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="X54">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -4977,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="X55">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -5051,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="X56">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -5125,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="X57">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -5199,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="X58">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -5273,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="X59">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -5347,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="X60">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -5421,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="X61">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -5495,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="X62">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -5569,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="X63">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -5643,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="X64">
-        <v>0.676923076923077</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -5717,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="X65">
-        <v>0.676923076923077</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -5791,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="X66">
-        <v>0.676923076923077</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -5865,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="X67">
-        <v>0.5692307692307692</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -5939,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="X68">
-        <v>0.5692307692307692</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -6013,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="X69">
-        <v>0.5692307692307692</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -6087,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="X70">
-        <v>0.4923076923076923</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -6161,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="X71">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -6235,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="X72">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -6309,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="X73">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -6383,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="X74">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -6457,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="X75">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -6531,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="X76">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -6605,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="X77">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -6679,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="X78">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -6753,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="X79">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -6827,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="X80">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -6901,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="X81">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -6975,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="X82">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -7049,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -7123,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="X84">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -7197,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -7271,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -7345,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="X87">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -7419,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -7493,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -7567,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="X90">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -7641,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="X91">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -7715,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -7789,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -7863,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -7937,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="X95">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -8011,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -8085,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -8159,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="X98">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="99" spans="1:24">
@@ -8233,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="X99">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -8307,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="X100">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="101" spans="1:24">
@@ -8381,7 +8417,7 @@
         <v>0</v>
       </c>
       <c r="X101">
-        <v>0.4153846153846154</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="102" spans="1:24">
@@ -8455,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="X102">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="103" spans="1:24">
@@ -8529,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="X103">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="104" spans="1:24">
@@ -8603,7 +8639,7 @@
         <v>0</v>
       </c>
       <c r="X104">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="105" spans="1:24">
@@ -8677,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="X105">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="106" spans="1:24">
@@ -8751,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="X106">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -8825,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="X107">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -8899,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="X108">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -8973,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="X109">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -9047,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="X110">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -9121,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="X111">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="112" spans="1:24">
@@ -9195,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="X112">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="113" spans="1:24">
@@ -9269,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="X113">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -9343,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="X114">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="115" spans="1:24">
@@ -9417,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="X115">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="116" spans="1:24">
@@ -9491,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="X116">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="117" spans="1:24">
@@ -9565,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="X117">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="118" spans="1:24">
@@ -9639,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="X118">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="119" spans="1:24">
@@ -9713,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="X119">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="120" spans="1:24">
@@ -9787,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="X120">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:24">
@@ -9861,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="X121">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="122" spans="1:24">
@@ -9935,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="X122">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="123" spans="1:24">
@@ -10009,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="X123">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="124" spans="1:24">
@@ -10083,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="X124">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="125" spans="1:24">
@@ -10157,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="X125">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="126" spans="1:24">
@@ -10231,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="X126">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="127" spans="1:24">
@@ -10305,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="X127">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="128" spans="1:24">
@@ -10379,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="X128">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="129" spans="1:24">
@@ -10453,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="X129">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="130" spans="1:24">
@@ -10527,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="X130">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="131" spans="1:24">
@@ -10601,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="X131">
-        <v>0.3230769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="132" spans="1:24">
@@ -10675,7 +10711,7 @@
         <v>0</v>
       </c>
       <c r="X132">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="133" spans="1:24">
@@ -10749,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="X133">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="134" spans="1:24">
@@ -10823,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="X134">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="135" spans="1:24">
@@ -10897,7 +10933,7 @@
         <v>0</v>
       </c>
       <c r="X135">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="136" spans="1:24">
@@ -10971,7 +11007,7 @@
         <v>0</v>
       </c>
       <c r="X136">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="137" spans="1:24">
@@ -11045,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="X137">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="138" spans="1:24">
@@ -11119,7 +11155,7 @@
         <v>0</v>
       </c>
       <c r="X138">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="139" spans="1:24">
@@ -11193,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="X139">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="140" spans="1:24">
@@ -11267,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="X140">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="141" spans="1:24">
@@ -11341,7 +11377,7 @@
         <v>0</v>
       </c>
       <c r="X141">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="142" spans="1:24">
@@ -11415,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="X142">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="143" spans="1:24">
@@ -11489,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="X143">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="144" spans="1:24">
@@ -11563,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="X144">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="145" spans="1:24">
@@ -11637,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="X145">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="146" spans="1:24">
@@ -11711,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="X146">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="147" spans="1:24">
@@ -11785,7 +11821,7 @@
         <v>0</v>
       </c>
       <c r="X147">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="148" spans="1:24">
@@ -11859,7 +11895,7 @@
         <v>0</v>
       </c>
       <c r="X148">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="149" spans="1:24">
@@ -11933,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="X149">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="150" spans="1:24">
@@ -12007,7 +12043,7 @@
         <v>0</v>
       </c>
       <c r="X150">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="151" spans="1:24">
@@ -12081,7 +12117,7 @@
         <v>0</v>
       </c>
       <c r="X151">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="152" spans="1:24">
@@ -12155,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="X152">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="153" spans="1:24">
@@ -12229,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="X153">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="154" spans="1:24">
@@ -12303,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="X154">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="155" spans="1:24">
@@ -12377,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="X155">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="156" spans="1:24">
@@ -12451,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="X156">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="157" spans="1:24">
@@ -12525,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="X157">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="158" spans="1:24">
@@ -12599,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="X158">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="159" spans="1:24">
@@ -12673,7 +12709,7 @@
         <v>0</v>
       </c>
       <c r="X159">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="160" spans="1:24">
@@ -12747,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="X160">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="161" spans="1:24">
@@ -12821,7 +12857,7 @@
         <v>0</v>
       </c>
       <c r="X161">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="162" spans="1:24">
@@ -12895,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="X162">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="163" spans="1:24">
@@ -12969,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="X163">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="164" spans="1:24">
@@ -13043,7 +13079,7 @@
         <v>0</v>
       </c>
       <c r="X164">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="165" spans="1:24">
@@ -13117,7 +13153,7 @@
         <v>0</v>
       </c>
       <c r="X165">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="166" spans="1:24">
@@ -13191,7 +13227,7 @@
         <v>0</v>
       </c>
       <c r="X166">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="167" spans="1:24">
@@ -13265,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="X167">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="168" spans="1:24">
@@ -13339,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="X168">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="169" spans="1:24">
@@ -13413,7 +13449,7 @@
         <v>0</v>
       </c>
       <c r="X169">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="170" spans="1:24">
@@ -13487,7 +13523,7 @@
         <v>0</v>
       </c>
       <c r="X170">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="171" spans="1:24">
@@ -13561,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="X171">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="172" spans="1:24">
@@ -13635,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="X172">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="173" spans="1:24">
@@ -13709,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="X173">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="174" spans="1:24">
@@ -13783,7 +13819,7 @@
         <v>0</v>
       </c>
       <c r="X174">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="175" spans="1:24">
@@ -13857,7 +13893,7 @@
         <v>0</v>
       </c>
       <c r="X175">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="176" spans="1:24">
@@ -13931,7 +13967,7 @@
         <v>0</v>
       </c>
       <c r="X176">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="177" spans="1:24">
@@ -14005,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="X177">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="178" spans="1:24">
@@ -14079,7 +14115,7 @@
         <v>0</v>
       </c>
       <c r="X178">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="179" spans="1:24">
@@ -14153,7 +14189,7 @@
         <v>0</v>
       </c>
       <c r="X179">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="180" spans="1:24">
@@ -14227,7 +14263,7 @@
         <v>0</v>
       </c>
       <c r="X180">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="181" spans="1:24">
@@ -14301,7 +14337,7 @@
         <v>0</v>
       </c>
       <c r="X181">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="182" spans="1:24">
@@ -14375,7 +14411,7 @@
         <v>0</v>
       </c>
       <c r="X182">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="183" spans="1:24">
@@ -14449,7 +14485,7 @@
         <v>0</v>
       </c>
       <c r="X183">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="184" spans="1:24">
@@ -14523,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="X184">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="185" spans="1:24">
@@ -14597,7 +14633,7 @@
         <v>0</v>
       </c>
       <c r="X185">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="186" spans="1:24">
@@ -14671,7 +14707,7 @@
         <v>0</v>
       </c>
       <c r="X186">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="187" spans="1:24">
@@ -14745,7 +14781,7 @@
         <v>0</v>
       </c>
       <c r="X187">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="188" spans="1:24">
@@ -14819,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="X188">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="189" spans="1:24">
@@ -14893,7 +14929,7 @@
         <v>0</v>
       </c>
       <c r="X189">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="190" spans="1:24">
@@ -14967,7 +15003,7 @@
         <v>0</v>
       </c>
       <c r="X190">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="191" spans="1:24">
@@ -15041,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="X191">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="192" spans="1:24">
@@ -15115,7 +15151,7 @@
         <v>0</v>
       </c>
       <c r="X192">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="193" spans="1:24">
@@ -15189,7 +15225,7 @@
         <v>0</v>
       </c>
       <c r="X193">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="194" spans="1:24">
@@ -15263,7 +15299,7 @@
         <v>0</v>
       </c>
       <c r="X194">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="195" spans="1:24">
@@ -15337,7 +15373,7 @@
         <v>0</v>
       </c>
       <c r="X195">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="196" spans="1:24">
@@ -15411,7 +15447,7 @@
         <v>0</v>
       </c>
       <c r="X196">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="197" spans="1:24">
@@ -15485,7 +15521,7 @@
         <v>0</v>
       </c>
       <c r="X197">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="198" spans="1:24">
@@ -15559,7 +15595,7 @@
         <v>0</v>
       </c>
       <c r="X198">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="199" spans="1:24">
@@ -15633,7 +15669,7 @@
         <v>0</v>
       </c>
       <c r="X199">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="200" spans="1:24">
@@ -15707,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="X200">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="201" spans="1:24">
@@ -15781,7 +15817,7 @@
         <v>0</v>
       </c>
       <c r="X201">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="202" spans="1:24">
@@ -15855,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="X202">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="203" spans="1:24">
@@ -15929,7 +15965,7 @@
         <v>0</v>
       </c>
       <c r="X203">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="204" spans="1:24">
@@ -16003,7 +16039,7 @@
         <v>0</v>
       </c>
       <c r="X204">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="205" spans="1:24">
@@ -16077,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="X205">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="206" spans="1:24">
@@ -16151,7 +16187,7 @@
         <v>0</v>
       </c>
       <c r="X206">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="207" spans="1:24">
@@ -16225,7 +16261,7 @@
         <v>0</v>
       </c>
       <c r="X207">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="208" spans="1:24">
@@ -16299,7 +16335,7 @@
         <v>0</v>
       </c>
       <c r="X208">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="209" spans="1:24">
@@ -16373,7 +16409,7 @@
         <v>0</v>
       </c>
       <c r="X209">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="210" spans="1:24">
@@ -16447,7 +16483,7 @@
         <v>0</v>
       </c>
       <c r="X210">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="211" spans="1:24">
@@ -16521,7 +16557,7 @@
         <v>0</v>
       </c>
       <c r="X211">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="212" spans="1:24">
@@ -16595,7 +16631,7 @@
         <v>0</v>
       </c>
       <c r="X212">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="213" spans="1:24">
@@ -16669,7 +16705,7 @@
         <v>0</v>
       </c>
       <c r="X213">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="214" spans="1:24">
@@ -16743,7 +16779,7 @@
         <v>0</v>
       </c>
       <c r="X214">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="215" spans="1:24">
@@ -16817,7 +16853,7 @@
         <v>0</v>
       </c>
       <c r="X215">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="216" spans="1:24">
@@ -16891,7 +16927,7 @@
         <v>0</v>
       </c>
       <c r="X216">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="217" spans="1:24">
@@ -16965,7 +17001,7 @@
         <v>0</v>
       </c>
       <c r="X217">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="218" spans="1:24">
@@ -17039,7 +17075,7 @@
         <v>0</v>
       </c>
       <c r="X218">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="219" spans="1:24">
@@ -17113,7 +17149,7 @@
         <v>0</v>
       </c>
       <c r="X219">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="220" spans="1:24">
@@ -17187,7 +17223,7 @@
         <v>0</v>
       </c>
       <c r="X220">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="221" spans="1:24">
@@ -17261,7 +17297,895 @@
         <v>0</v>
       </c>
       <c r="X221">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24">
+      <c r="A222" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>1</v>
+      </c>
+      <c r="U222">
+        <v>1</v>
+      </c>
+      <c r="V222">
+        <v>1</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24">
+      <c r="A223" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>1</v>
+      </c>
+      <c r="U223">
+        <v>1</v>
+      </c>
+      <c r="V223">
+        <v>1</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24">
+      <c r="A224" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>1</v>
+      </c>
+      <c r="U224">
+        <v>1</v>
+      </c>
+      <c r="V224">
+        <v>1</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24">
+      <c r="A225" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>1</v>
+      </c>
+      <c r="U225">
+        <v>1</v>
+      </c>
+      <c r="V225">
+        <v>1</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24">
+      <c r="A226" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>1</v>
+      </c>
+      <c r="U226">
+        <v>1</v>
+      </c>
+      <c r="V226">
+        <v>1</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24">
+      <c r="A227" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>1</v>
+      </c>
+      <c r="U227">
+        <v>1</v>
+      </c>
+      <c r="V227">
+        <v>1</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24">
+      <c r="A228" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>1</v>
+      </c>
+      <c r="U228">
+        <v>1</v>
+      </c>
+      <c r="V228">
+        <v>1</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24">
+      <c r="A229" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>1</v>
+      </c>
+      <c r="U229">
+        <v>1</v>
+      </c>
+      <c r="V229">
+        <v>1</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24">
+      <c r="A230" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>1</v>
+      </c>
+      <c r="U230">
+        <v>1</v>
+      </c>
+      <c r="V230">
+        <v>1</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24">
+      <c r="A231" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>1</v>
+      </c>
+      <c r="U231">
+        <v>1</v>
+      </c>
+      <c r="V231">
+        <v>1</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24">
+      <c r="A232" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>1</v>
+      </c>
+      <c r="U232">
+        <v>1</v>
+      </c>
+      <c r="V232">
+        <v>1</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24">
+      <c r="A233" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>1</v>
+      </c>
+      <c r="U233">
+        <v>1</v>
+      </c>
+      <c r="V233">
+        <v>1</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
